--- a/datasets/covariate_data2.xlsx
+++ b/datasets/covariate_data2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jacob\Documents\repos\Covariate_Tool\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jacob\Documents\repos\Covariate_Tool\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2890BA82-6D2C-4066-9A2B-5605A591525E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B86A7BA-AF88-4230-B8DC-45911BDC17DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{D432D790-24C9-2149-9336-E4BB80E6BC53}"/>
+    <workbookView xWindow="38292" yWindow="2580" windowWidth="17436" windowHeight="12204" activeTab="1" xr2:uid="{D432D790-24C9-2149-9336-E4BB80E6BC53}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,19 +37,19 @@
     <t>T</t>
   </si>
   <si>
-    <t>fVec</t>
+    <t>FC</t>
   </si>
   <si>
-    <t>eVec</t>
+    <t>F</t>
   </si>
   <si>
-    <t>cVec</t>
+    <t>E</t>
   </si>
   <si>
-    <t>rVec</t>
+    <t>C</t>
   </si>
   <si>
-    <t>FC</t>
+    <t>R</t>
   </si>
 </sst>
 </file>
@@ -403,8 +403,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18E59C35-86CA-6C4E-B67E-5D2D3FB8DD63}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16:F29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -414,19 +414,19 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
         <v>5</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -718,24 +718,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8418401A-F4EB-5B4D-9957-0A4348BEB71E}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:D29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
